--- a/LeadFromFirst.xlsx
+++ b/LeadFromFirst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneesha\Documents\GitHub\PavithraProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991E811B-582B-4DC0-9B8E-9E084E178459}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04915D32-AD4C-4C66-B89E-C602CE323A7A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,7 +578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>

--- a/LeadFromFirst.xlsx
+++ b/LeadFromFirst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneesha\Documents\GitHub\PavithraProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04915D32-AD4C-4C66-B89E-C602CE323A7A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E518C48D-9462-42F2-A1E2-D27AB2DBA484}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
